--- a/SGP_Mitra-main/app/data/Clinical_Data/SearchItem_cleaned.xlsx
+++ b/SGP_Mitra-main/app/data/Clinical_Data/SearchItem_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smit\Desktop\DESKTOP\6th sem\New SGP\Mitra_Dhruvil_Branch\SGP_Mitra\SGP_Mitra-main\app\data\Clinical_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E3013F-E4E8-4519-BE9E-EA5CD2CE70F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A3918C-D292-4F65-9706-EE3CFB4BA806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="281">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Scenario</t>
   </si>
   <si>
+    <t>SearchTerm</t>
+  </si>
+  <si>
     <t>AssessmentQuestion</t>
   </si>
   <si>
@@ -43,7 +46,7 @@
     <t>SearchItem</t>
   </si>
   <si>
-    <t>You're supposed to plan a fun night out with friends, but the thought of it feels more like a chore than an adventure. What do you do?</t>
+    <t>You just stumbled upon your favorite cozy cafe, the one with the perfect latte and the aroma that usually makes your day brighter. Today, however, the door handle feels like lifting a boulder.  Inside, the chatter and clinking mugs usually call out to you, but today they just... exist.</t>
   </si>
   <si>
     <t xml:space="preserve"> Little interest or pleasure in doing things </t>
@@ -55,10 +58,10 @@
     <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
   </si>
   <si>
-    <t>Stressed planning</t>
-  </si>
-  <si>
-    <t>You've got a text from a friend asking to hang out, but the thought of responding feels like climbing a mountain. What do you do?</t>
+    <t>Gears Grinding Silence</t>
+  </si>
+  <si>
+    <t>You wake up to the smell of freshly brewed coffee downstairs, a scent usually like a golden ticket to motivation. But today, even the aroma seems muted. Your comfy blanket whispers sweet nothings about just one more snooze.</t>
   </si>
   <si>
     <t xml:space="preserve">Feeling down, depressed, or hopeless </t>
@@ -67,73 +70,73 @@
     <t>PHQ-9</t>
   </si>
   <si>
-    <t>Mountain of Messages</t>
-  </si>
-  <si>
-    <t>You're trying to wind down for bed, but your brain decides it's the perfect time to think about everything you forgot to do today. What do you do?</t>
+    <t>Morning Gloom Comfort</t>
+  </si>
+  <si>
+    <t>The clock ticks past midnight, and you’re either already snuggled under the covers contemplating another episode of your favorite show or, well, sprawled out on the couch with a half-eaten bowl of popcorn wondering if your eyelids will ever cooperate.</t>
   </si>
   <si>
     <t xml:space="preserve">Trouble falling or staying asleep, or sleeping too much </t>
   </si>
   <si>
-    <t>Restless Night Thoughts</t>
-  </si>
-  <si>
-    <t>Your alarm blares, and you've already hit snooze three times. The snooze button is calling your name like an old friend, but so is that coffee you promised yourself. What do you do?</t>
+    <t>Midnight Snuggle Popcorn</t>
+  </si>
+  <si>
+    <t>Your favorite café just announced they’re running a special on their legendary unicorn latte for one hour only. You glance at the clock — it’s right now or maybe tomorrow. Your comfy couch beckons.</t>
   </si>
   <si>
     <t xml:space="preserve">Feeling tired or having little energy </t>
   </si>
   <si>
-    <t>Morning Struggle</t>
-  </si>
-  <si>
-    <t>You're standing in front of the fridge, staring at last night's leftovers. Part of you is meh, but another part is like, 'Why not?' What do you do?</t>
+    <t>Couch Dilemma Sunset</t>
+  </si>
+  <si>
+    <t>Your favorite café just announced a limited-time dessert menu featuring exotic flavors you’ve been dreaming about. You step inside, the aroma hits you, and...  the line snakes around the corner.</t>
   </si>
   <si>
     <t xml:space="preserve">Poor appetite or overeating </t>
   </si>
   <si>
-    <t>midnight cravings</t>
-  </si>
-  <si>
-    <t>You've just burned the cookies you were supposed to bake for the family gathering, and now the smoke alarm is having a loud opinion about your culinary skills. What do you do next?</t>
+    <t>Long Queue, Sweet Aroma</t>
+  </si>
+  <si>
+    <t>You just got home after a long day where everything seemed to go wrong, from spilling coffee on your shirt to missing an important deadline. As you walk through the door, your family excitedly asks about your day, but all you want to do is hide in the pantry with a box of cookies.</t>
   </si>
   <si>
     <t>Feeling bad about yourself — or that you are a failure or have let yourself or your family down</t>
   </si>
   <si>
-    <t>Smoke chaos</t>
-  </si>
-  <si>
-    <t>You're trying to watch your favorite show, but you've rewound the same scene three times because your mind keeps drifting off to what's for dinner. What do you do next?</t>
+    <t>Isolated Comfort</t>
+  </si>
+  <si>
+    <t>You just got your hands on the latest bestseller everyone's buzzing about, but as you crack open the cover on your cozy couch, your eyes keep drifting to the ceiling, noticing dust bunnies you swear weren't there yesterday.</t>
   </si>
   <si>
     <t xml:space="preserve">Trouble concentrating on things, such as reading the newspaper or watching television </t>
   </si>
   <si>
-    <t>Mind Drifting</t>
-  </si>
-  <si>
-    <t>You're at a cozy coffee shop, and it's your turn to order. The barista is waiting, and so is the line behind you. Are you moving slower than the coffee shop Wi-Fi, or are you bouncing around like a triple-shot espresso?</t>
+    <t>Cozy Distraction Dust</t>
+  </si>
+  <si>
+    <t>You just got the email that your favorite band announced a surprise in-store performance this afternoon. As you read it, are you...  *still contemplating whether to change out of your pajamas*... or already *darting around the room, checking the clock every minute*?</t>
   </si>
   <si>
     <t xml:space="preserve"> Moving or speaking so slowly that other people could have noticed?  Or the opposite — being so fidgety or restless that you have been moving around a lot more than usual </t>
   </si>
   <si>
-    <t>Cozy Cafe Rush</t>
-  </si>
-  <si>
-    <t>You're trying to relax, but your mind keeps playing the same negative track on repeat. What do you do to change the tune?</t>
+    <t>Excitement Rush</t>
+  </si>
+  <si>
+    <t>You just scored tickets to your favorite band’s concert, and the excitement starts buzzing like a neon sign. Suddenly, a wave of those heavy thoughts rolls in, making the idea of getting out of bed feel like climbing Mount Everest. The tickets are clutched in your hand, tickets to joy and escape... or so they should be.</t>
   </si>
   <si>
     <t xml:space="preserve">Thoughts that you would be better off dead or of hurting yourself in some way </t>
   </si>
   <si>
-    <t>mind maze</t>
-  </si>
-  <si>
-    <t>You're at a bustling coffee shop, and as you step up to order, the barista is staring at you expectantly while the line grows behind you. What do you do?</t>
+    <t>Tickets Clutched Anxiety</t>
+  </si>
+  <si>
+    <t>You just received an unexpected email requesting you to present at tomorrow's big company meeting—something you've been preparing for but never imagined would actually happen this soon. Your hands start to sweat slightly as you glance at the clock.</t>
   </si>
   <si>
     <t xml:space="preserve">Feeling nervous, anxious, or on edge  </t>
@@ -142,10 +145,10 @@
     <t>GAD-7 (General Anxiety Disorder)</t>
   </si>
   <si>
-    <t>Busy coffee shop</t>
-  </si>
-  <si>
-    <t>You're trying to enjoy a peaceful Sunday morning, but your worries are like a train that won't stop moving. What do you do next?</t>
+    <t>Anxiety Clock Glance</t>
+  </si>
+  <si>
+    <t>Your best friend just spilled the beans about an epic surprise party they’re throwing for you this weekend. But instead of bouncing off the walls with excitement, you find yourself fixated on every tiny detail that could go wrong—the weather, if everyone will actually show up, if the cake will be as amazing as you hoped.  You glance at your packed schedule for the week ahead, already mentally juggling potential catastrophes.</t>
   </si>
   <si>
     <t>Not being able to stop or control worrying</t>
@@ -154,55 +157,55 @@
     <t>GAD-7</t>
   </si>
   <si>
-    <t>Serene turmoil</t>
-  </si>
-  <si>
-    <t>You're planning a casual game night, but your brain has turned it into a potential disaster movie—'What if the pizza is late? What if the board games are boring? What if someone hates the snacks?' What do you do next?</t>
+    <t>Worried Expectation</t>
+  </si>
+  <si>
+    <t>You’ve just stumbled upon the perfect vintage record at your favorite thrift store, but as you reach for it, your mind suddenly floods with thoughts about overdue bills, an upcoming presentation, and whether you locked the door at home. The needle hovers above the vinyl, waiting for your move.</t>
   </si>
   <si>
     <t>Worrying too much about different things</t>
   </si>
   <si>
-    <t>Anxious hands</t>
-  </si>
-  <si>
-    <t>You're attempting to unwind after a long day, but your mind is racing like a runaway train. What's your next move?</t>
+    <t>Vinyl Pause Stress</t>
+  </si>
+  <si>
+    <t>The weekend finally arrives, and you see a hammock swaying gently in the backyard, calling your name. Sunscreen and a good book are waiting. But right now, your living room is a battlefield of unfolded laundry and half-empty coffee cups.</t>
   </si>
   <si>
     <t>Trouble relaxing</t>
   </si>
   <si>
-    <t>calm water</t>
-  </si>
-  <si>
-    <t>"You're in a meeting where everyone's supposed to be focused, but your leg has decided it's time to tap out its own rhythm. What do you do?"</t>
+    <t>Peaceful Hammock Serenity</t>
+  </si>
+  <si>
+    <t>You’re at a family gathering where everyone is watching that dry PowerPoint presentation about your cousin’s new spreadsheet software. You suddenly feel an irresistible urge to... well, maybe sneak out for a spontaneous dance break in the backyard.</t>
   </si>
   <si>
     <t xml:space="preserve">Being so restless that it is hard to sit still </t>
   </si>
   <si>
-    <t>Restless leg</t>
-  </si>
-  <si>
-    <t>You come home after a long day and find that your roommate has not only left the cap off the toothpaste but also squeezed it from the middle. What do you do?</t>
+    <t>Backyard Escapade</t>
+  </si>
+  <si>
+    <t>You just spilled coffee all over your favorite shirt right before an important meeting. Your roommate walks in humming happily, completely oblivious.</t>
   </si>
   <si>
     <t>Becoming easily annoyed or irritable</t>
   </si>
   <si>
-    <t>Frustrated at mess</t>
-  </si>
-  <si>
-    <t>You're home alone and hear a strange noise that sounds like someone (or something) is in the house. What do you do?</t>
+    <t>Stained Calm Indifference</t>
+  </si>
+  <si>
+    <t>You just received a text saying your favorite local coffee shop is closing forever today. As you open your eyes, sunlight streams in, but all you feel is a chill down your spine. The comfy blanket whispers sweet nothings to keep you under its warmth.</t>
   </si>
   <si>
     <t xml:space="preserve">Feeling afraid, as if something awful might happen  </t>
   </si>
   <si>
-    <t>Dark hallway fear</t>
-  </si>
-  <si>
-    <t>You’ve been staring at the same TV show for 20 minutes but your brain is still running a mental marathon. What do you do next?</t>
+    <t>Sunlight Sorrow Blanket</t>
+  </si>
+  <si>
+    <t>The sun is setting, casting a warm glow through your window, but inside, Netflix is calling with a marathon of your favorite show. Your cozy blanket is folded neatly on the couch, waiting.  Do you eagerly hop right in, or does your brain keep buzzing like a bee trapped in a jar?</t>
   </si>
   <si>
     <t xml:space="preserve">I found it hard to wind down </t>
@@ -211,33 +214,28 @@
     <t>DASS-21</t>
   </si>
   <si>
-    <t>&lt;think&gt;
-Okay, so I need to help generate a search keyword for Pexels based on a specific mental health app scenario. The scenario given is: "You’ve been staring at the same TV show for 20 minutes but your brain is still running a mental marathon. What do you do next?" 
-First, I should understand the scenario. The person is watching TV, but their mind isn't at rest. They're distracted, maybe stressed or anxious, because their brain is still active, like running a marathon. So, the next action they take is what we're focusing on. 
-I need to think about what someone might do in that situation. They might decide to take a break, go for a walk, meditate, or do something else to calm their mind. The keyword should represent a visual image related to this action. It should be abstract but relevant, focusing on moods, objects, places, or people involved.
-Let me brainstorm some ideas. The person is feeling restless, so maybe they get up and move around. They could go outside, take a walk in nature, which is calming. Alternatively, they might engage in a relaxing activity like reading, stretching, or practicing yoga. 
-I should think of a keyword that captures the transition from a restless state to a calming action. Words like "calm," "peace," "serenity," "nature," "walk," "mindful," "breathing," "relaxation," "movement," "escape," "break," "pause," "reflection," "solace," "tranquility," "balance," "focus," "clarity," "release," "unwind," "slow," "stillness," "presence," "grounding," "ease," "comfort," "soothe," "calmness," "quiet," "silence," "space," "distance," "detox," "reset," "recharge," "refresh," "renew," "heal," "nurture," "care," "support," "self-care," "me-time," "alone," "solitude," "contemplation," "introspection," "self-reflection," "mindfulness," "meditation," "yoga," "stretch," "breathe," "move," "exercise," "activity," "change," "shift," "transition," "step," "next," "forward," "ahead," "progress," "growth," "journey," "path," "road," "way," "direction," "purpose," "intent," "focus," "clarity," "vision," "future," "hope," "optimism," "positive," "uplift," "encourage," "motivate," "inspire," "empower," "strength," "resilience," "courage," "confidence," "self-esteem," "worth," "value," "love," "compassion," "kindness," "empathy," "connection," "community," "support," "help," "assistance," "guidance," "advice," "resources," "tools," "strategies," "techniques," "methods," "approaches," "solutions," "answers," "relief," "comfort," "consolation," "solace," "peace," "calm," "serenity," "tranquility," "stillness," "quiet," "silence," "space," "distance," "detox," "reset," "recharge," "refresh," "renew," "heal," "nurture," "care," "support," "self-care," "me-time," "alone," "solitude," "contemplation," "introspection," "self-reflection," "mindfulness," "meditation," "yoga," "stretch," "breathe," "move," "exercise," "activity," "change," "shift," "transition," "step," "next," "forward," "ahead," "progress," "growth," "journey," "path," "road," "way," "direction," "purpose," "intent," "focus," "clarity," "vision," "future," "hope," "optimism," "positive," "uplift," "encourage," "motivate," "inspire," "empower," "strength," "resilience," "courage," "confidence," "self-esteem," "worth," "value," "love," "compassion," "kindness," "empathy," "connection," "community," "support," "help," "assistance," "guidance," "advice," "resources," "tools," "strategies," "techniques," "methods," "approaches," "solutions," "answers," "relief," "comfort," "consolation," "solace," "peace," "calm," "serenity," "tranquility," "stillness," "quiet," "silence," "space," "distance," "detox," "reset," "recharge," "refresh," "renew," "heal," "nurture," "care," "support," "self-care," "me-time," "alone," "solitude," "contemplation," "introspection," "self-reflection," "mindfulness," "meditation," "yoga," "stretch," "breathe," "move," "exercise," "activity," "change," "shift," "transition," "step," "next," "forward," "ahead," "progress," "growth," "journey," "path," "road," "way," "direction," "purpose," "intent," "focus," "clarity," "vision," "future," "hope," "optimism," "positive," "uplift," "encourage," "motivate," "inspire," "empower," "strength," "resilience," "courage," "confidence," "self-esteem," "worth," "value," "love," "compassion," "kindness," "empathy," "connection," "community," "support," "help," "assistance," "guidance," "advice," "resources," "tools," "strategies," "techniques," "methods," "approaches," "solutions," "answers," "relief," "comfort," "consolation," "solace," "peace," "calm," "serenity," "tranquility," "stillness," "quiet," "silence," "space," "distance," "detox," "reset," "recharge," "refresh," "renew," "heal," "nurture," "care," "support," "self-care," "me-time," "alone," "solitude," "contemplation," "introspection," "self-reflection," "mindfulness," "meditation," "yoga," "stretch," "breathe," "move," "exercise," "activity," "change," "shift," "transition," "step," "next," "forward," "ahead," "progress," "growth," "journey," "path," "road," "way," "direction," "purpose," "intent," "focus," "clarity," "vision," "future," "hope," "optimism," "positive," "uplift," "encourage," "motivate," "inspire," "empower," "strength," "resilience," "courage," "confidence," "self-esteem," "worth," "value," "love," "compassion," "kindness," "empathy," "connection," "community," "support," "help," "assistance," "guidance," "advice," "resources," "tools," "strategies," "techniques," "methods," "approaches," "solutions," "answers," "relief," "comfort," "consolation," "solace," "peace," "calm," "serenity," "tranquility," "stillness," "quiet," "silence," "space," "distance," "detox," "reset," "recharge," "refresh," "renew," "heal," "nurture," "care," "support," "self-care," "me-time," "alone," "solitude," "contemplation," "introspection," "self-reflection," "mindfulness," "meditation," "yoga," "stretch," "breathe," "move," "exercise," "activity," "change," "shift," "transition," "step," "next," "forward," "ahead," "progress," "growth," "journey," "path," "road," "way," "direction," "purpose," "intent," "focus," "clarity," "vision," "future," "hope," "optimism," "positive," "uplift," "encourage," "motivate," "inspire," "empower," "strength," "resilience," "courage," "confidence," "self-esteem," "worth," "value," "love," "compassion," "kindness," "empathy," "connection," "community," "support," "help," "assistance," "guidance," "advice," "resources," "tools," "strategies," "techniques," "methods," "approaches," "solutions," "answers," "relief," "comfort," "consolation," "solace," "peace," "calm," "serenity," "tranquility," "stillness," "quiet," "silence," "space," "distance," "detox," "reset," "recharge," "refresh," "renew," "heal," "nurture," "care," "support," "self-care," "me-time," "alone," "solitude," "</t>
-  </si>
-  <si>
-    <t>You're about to give a big presentation and your mouth feels as dry as the Sahara Desert. What do you do next?</t>
+    <t>Cozy Couch Dilemma</t>
+  </si>
+  <si>
+    <t>You just woke up to the smell of freshly baked cinnamon rolls wafting through your apartment—your neighbor must be having a bake-off. But as you stretch, your mouth feels Sahara Desert dry. The tantalizing aroma vs. your parched state...</t>
   </si>
   <si>
     <t xml:space="preserve">I was aware of dryness of my mouth </t>
   </si>
   <si>
-    <t>nervous sip</t>
-  </si>
-  <si>
-    <t>You're at a birthday party surrounded by laughing friends, a giant cake, and enough balloons to lift a small car, but the only thing you're feeling is... well, nothing. What do you do next?</t>
+    <t>Desert Mouth, Sweet Aroma</t>
+  </si>
+  <si>
+    <t>You just stumbled upon a flyer for a spontaneous beach day — flip flops, sunshine, and ice cream galore.  You glance at it, then back at your pile of paperwork.</t>
   </si>
   <si>
     <t xml:space="preserve">I couldn’t seem to experience any positive feeling at all </t>
   </si>
   <si>
-    <t>party emptiness</t>
-  </si>
-  <si>
-    <t>You spill coffee on your shirt before a big meeting and suddenly feel like you can't catch your breath. What's your move?</t>
+    <t>Sunshine Desk Contrast</t>
+  </si>
+  <si>
+    <t>You just got the email confirming tickets to that sold-out concert you've been dying to see all year. Your roommate bursts in, all bubbly about her weekend plans, but as you open the email, you suddenly feel a wave of that breathless tightness in your chest, making it hard to even smile back.</t>
   </si>
   <si>
     <t xml:space="preserve">I experienced breathing difficulty (e.g. excessively rapid breathing, breathlessness in the absence of physical exertion) </t>
@@ -246,160 +244,164 @@
     <t xml:space="preserve">DASS-21 (Depression , Anxiety and Stress Scale) </t>
   </si>
   <si>
-    <t>You're sitting on the couch, and your to-do list is staring at you like a judgy friend. Your phone is buzzing with texts, but the couch is way too comfy. What do you do?</t>
+    <t>Concert Excitement vs. Anxiety Tightness</t>
+  </si>
+  <si>
+    <t>You just unwrapped a surprise package labeled “Weekend Adventure Kit” – think hiking gear, a picnic blanket, and a map to a nearby hidden waterfall. The sun is shining through your window, but your cozy couch is calling your name pretty loudly.</t>
   </si>
   <si>
     <t xml:space="preserve">I found it difficult to work up the initiative to do things </t>
   </si>
   <si>
-    <t>Cozy Procrastination</t>
-  </si>
-  <si>
-    <t>You've been looking forward to that last slice of pizza all day, and now it's gone—courtesy of your partner. What's your next move?</t>
+    <t>Sunshine Escape Gear</t>
+  </si>
+  <si>
+    <t>Your friend texts you at 3 PM saying they're running late for your lunch date. The cafe you booked is filling up fast.</t>
   </si>
   <si>
     <t>I tended to over-react to situations</t>
   </si>
   <si>
-    <t>empty pizza box</t>
-  </si>
-  <si>
-    <t>"You're trying to take a steady selfie, but your hands are shaking so much the camera slips, and now you have a photo of your ceiling instead of your face. What do you do next?"</t>
+    <t>Anxious Wait, Empty Chair</t>
+  </si>
+  <si>
+    <t>You just got the news that your favorite local bakery is running a one-day-only special on their legendary cinnamon rolls, and you happen to be passing by right now. The aroma hits you before you even open the door.</t>
   </si>
   <si>
     <t xml:space="preserve">I experienced trembling (e.g. in the hands) </t>
   </si>
   <si>
-    <t>Shaky hands</t>
-  </si>
-  <si>
-    <t>Your foot is tapping like it's in a race, and your fingers are drumming a solo. What's your next move?</t>
+    <t>Sweet Aroma Delight</t>
+  </si>
+  <si>
+    <t>You just got a surprise text from an old friend inviting you to an impromptu picnic in the park this afternoon. The sun's shining, but your mind is already racing with a million tasks you should probably be tackling instead.</t>
   </si>
   <si>
     <t>I felt that I was using a lot of nervous energy</t>
   </si>
   <si>
-    <t>Restless energy</t>
-  </si>
-  <si>
-    <t>You're at a party, and your mind is suddenly convinced you're about to spill your drink, trip over your own feet, or somehow turn into a human version of a viral fail video. What do you do?</t>
+    <t>Sunshine Distraction</t>
+  </si>
+  <si>
+    <t>You're backstage at a local open mic night, the spotlight buzzing ominously just feet away. The host calls out your name, and all eyes turn towards you. Your microphone stand stands tall, mocking your sudden urge to rewrite your entire comedic routine in your head.</t>
   </si>
   <si>
     <t xml:space="preserve">I was worried about situations in which I might panic and make a fool of myself </t>
   </si>
   <si>
-    <t>Anxious party moment</t>
-  </si>
-  <si>
-    <t>You're sitting on your couch, scrolling through your calendar, and it's as empty as a desert landscape—no plans, no events, just endless nothingness. What do you do next?</t>
+    <t>Stage Spotlight Anxiety</t>
+  </si>
+  <si>
+    <t>It's Friday afternoon, and your calendar is blissfully empty—no meetings, no plans, just a wall calendar staring back at you with a whole weekend ahead. You glance at your comfy couch versus the pile of untouched books you promised yourself you’d delve into.  
+[Slider response required]</t>
   </si>
   <si>
     <t>I felt that I had nothing to look forward to</t>
   </si>
   <si>
-    <t>Empty Couch</t>
-  </si>
-  <si>
-    <t>Your computer freezes right as you're about to hit send on a crucial work email, and the loading wheel is moving slower than a sloth on a Sunday stroll. What do you do next?</t>
+    <t>Cozy Weekend Reading</t>
+  </si>
+  <si>
+    <t>Your best friend invites you to spontaneously try that new, crazy rollercoaster everyone's buzzing about. You're standing at the entrance, hearing the screams ahead.</t>
   </si>
   <si>
     <t>I found myself getting agitated</t>
   </si>
   <si>
-    <t>Frustrated at computer</t>
-  </si>
-  <si>
-    <t>You've poured yourself a glass of wine and put on your favorite playlist, but your brain is still in work mode. What do you do?</t>
+    <t>Screaming Heights Joyride</t>
+  </si>
+  <si>
+    <t>You just got home after a hectic day, and the couch is calling your name with promises of a cozy blanket and your favorite show. The remote is within arm's reach, but your mind is buzzing like a bee in a windstorm, refusing to quiet down.</t>
   </si>
   <si>
     <t xml:space="preserve">I found it difficult to relax </t>
   </si>
   <si>
-    <t>relaxed tension</t>
-  </si>
-  <si>
-    <t>It's a cozy Sunday morning, but you're feeling as flat as the soda you left out overnight. What do you do?</t>
+    <t>Cozy Chaos</t>
+  </si>
+  <si>
+    <t>You just got that text from your friend inviting you to last-minute karaoke night, and the thought of belting out your favorite tunes hits your inbox like a sluggish email you'll probably ignore tomorrow.</t>
   </si>
   <si>
     <t xml:space="preserve">I felt down-hearted and blue </t>
   </si>
   <si>
-    <t>Cozy Stillness</t>
-  </si>
-  <si>
-    <t>You're trying to meet a tight deadline when your cat decides your keyboard is the perfect napping spot. What's your next move?</t>
+    <t>Sluggish Excitement Delay</t>
+  </si>
+  <si>
+    <t>You’re knee-deep in crafting the perfect birthday surprise for a friend, and suddenly your roommate pops in, eager to chat about their day. The glitter glue is poised mid-air over your meticulously planned banner.</t>
   </si>
   <si>
     <t xml:space="preserve">I was intolerant of anything that kept me from getting on with what I was doing </t>
   </si>
   <si>
-    <t>Cat interrupting</t>
-  </si>
-  <si>
-    <t>Your to-do list is longer than your favorite Netflix show's episode list, and your mind is racing faster than a caffeine high. What's your move?</t>
+    <t>Glitter Interruption Moment</t>
+  </si>
+  <si>
+    <t>You just got a message saying your favorite concert tickets went on sale. Your heart races, but your computer is in another room.  🎶🎟️</t>
   </si>
   <si>
     <t>I felt I was close to panic</t>
   </si>
   <si>
-    <t>Overwhelming Chaos</t>
-  </si>
-  <si>
-    <t>Your friend texts you about planning an epic night out, but as you stare at your phone, even the idea of pizza and a movie feels meh. What do you do? 🍕🍿</t>
+    <t>Racing Heart Ticket Rush</t>
+  </si>
+  <si>
+    <t>Your favorite band just announced a surprise gig in town tonight, but as you scroll past the news, your reaction is met with a wall of, "Meh."</t>
   </si>
   <si>
     <t xml:space="preserve">I was unable to become enthusiastic about anything </t>
   </si>
   <si>
-    <t>Lonely Glow</t>
-  </si>
-  <si>
-    <t>You're scrolling through social media and see someone posting about their promotion, another sharing their vacation pics, and a third bragging about their 5am workout. Suddenly, your Saturday morning in PJs doesn't feel quite as impressive. What do you do next?</t>
+    <t>Disengaged Concert Ticket</t>
+  </si>
+  <si>
+    <t>You just aced a fun game night with friends, but as you step into the quiet kitchen for a midnight snack, an inner voice whispers, "What's the point?" while a plate of cookies stares back invitingly.</t>
   </si>
   <si>
     <t>I felt I wasn’t worth much as a person</t>
   </si>
   <si>
-    <t>Social Media Blues</t>
-  </si>
-  <si>
-    <t>You're in a meeting and someone points out a tiny typo in your report. What's your next move?</t>
+    <t>Night Reflection, Doubtful Bite</t>
+  </si>
+  <si>
+    <t>Your favorite café just announced a surprise flash mob happening right now outside, and a friend texts you, “Should we go?!” You glance at your comfy couch beckoning from the other room.</t>
   </si>
   <si>
     <t xml:space="preserve">I felt that I was rather touchy  </t>
   </si>
   <si>
-    <t>calm correction</t>
-  </si>
-  <si>
-    <t>You're sitting in a quiet room, and suddenly your heartbeat is so loud it could be mistaken for a drum solo. What do you do next?</t>
+    <t>Outdoor Joy vs Cozy Comfort</t>
+  </si>
+  <si>
+    <t>You're chilling on the couch, scrolling through memes when suddenly, you feel a flutter in your chest as if you just sprinted a marathon. The TV hums in the background, completely unaware of your internal drama.</t>
   </si>
   <si>
     <t>I was aware of the action of my heart in the absence of physical exertion (e.g. sense of heart rate increase, heart missing a beat)</t>
   </si>
   <si>
-    <t>Anxious Heartbeat</t>
-  </si>
-  <si>
-    <t>You're home alone when you hear a mysterious thud downstairs that sounds like a monster. What do you do?</t>
+    <t>Anxiety Humming</t>
+  </si>
+  <si>
+    <t>Your best friend calls last minute for an impromptu picnic in the park, but suddenly, your mind floods with vague worries about forgetting something important or the weather turning sour, even though logically there’s nothing to fret about. You glance at your comfy couch, then at the sunshine streaming through your window.</t>
   </si>
   <si>
     <t>I felt scared without any good reason</t>
   </si>
   <si>
-    <t>Eerie home silence</t>
-  </si>
-  <si>
-    <t>You're folding laundry and realize you've spent 20 minutes searching for matching socks, only to wonder if this is all there is to life. What do you do next?</t>
+    <t>Sunshine Doubt Couch</t>
+  </si>
+  <si>
+    <t>You wake up to a sunny morning with birds chirping outside your window, but as you reach for your phone, all you can think is, "What’s the point of even scrolling?"</t>
   </si>
   <si>
     <t xml:space="preserve">I felt that life was meaningless </t>
   </si>
   <si>
-    <t>folding existential crisis</t>
-  </si>
-  <si>
-    <t>You're cruising through the grocery store when 'I Will Always Love You' starts blasting, and suddenly you're transported back to your middle school breakup. What's your move?</t>
+    <t>Sunrise Despair</t>
+  </si>
+  <si>
+    <t>You just spotted your favorite coffee shop across the street, the one with the latte art you always wanted to try.  Suddenly, a notification pops up reminding you of an upcoming presentation at work that’s been stressing you out.</t>
   </si>
   <si>
     <t>Any reminder brought back feelings about it,</t>
@@ -411,242 +413,209 @@
     <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
   </si>
   <si>
-    <t>Lonely Grocery Aisle</t>
-  </si>
-  <si>
-    <t>You wake up at 3 AM to the sound of your cat plotting world domination and now you're wide awake. What do you do?</t>
+    <t>Coffee Stress Latte</t>
+  </si>
+  <si>
+    <t>Your alarm clock buzzes insistently at 6 AM, but your cozy blanket whispers sweet nothings about just five more minutes. Outside, birds are already serenading the dawn with their cheerful chirps.</t>
   </si>
   <si>
     <t>I had trouble staying asleep</t>
   </si>
   <si>
-    <t>midnight wakefulness</t>
-  </si>
-  <si>
-    <t>You're at a party, laughing with friends, when someone mentions a word that instantly brings up *that thing* you've been trying not to think about all day. What do you do?</t>
+    <t>Morning Temptation</t>
+  </si>
+  <si>
+    <t>You’re at the park, about to kick off a game of frisbee with friends, but suddenly, your phone buzzes with notifications reminding you of that looming project deadline. The frisbee lies invitingly in your hand as you weigh the sunny, lively game ahead against the mental tug of unfinished work.</t>
   </si>
   <si>
     <t>Other things kept making me think about it</t>
   </si>
   <si>
-    <t>Anxious reflection</t>
-  </si>
-  <si>
-    <t>You're trying to enjoy a peaceful Sunday morning, but your roommate decides it's the perfect time to practice their drum solo. What do you do?</t>
+    <t>Sunshine Dilemma</t>
+  </si>
+  <si>
+    <t>You just spilled coffee all over your favorite shirt right before an important meeting. The clock ticks ominously as you stare at the wet stain.  😠☕️</t>
   </si>
   <si>
     <t>I felt irritable and angry</t>
   </si>
   <si>
-    <t>Chaotic Morning</t>
-  </si>
-  <si>
-    <t>You're having a great day when a song comes on that reminds you of something you'd rather forget. What's your move?</t>
+    <t>Stressful Morning Stain</t>
+  </si>
+  <si>
+    <t>Your favorite band just announced a last-minute show tickets going on sale at midnight. You glance at the clock — it's 11:55 PM. Your comfy couch beckons, but those tickets could be yours... if you can drag yourself to the computer.</t>
   </si>
   <si>
     <t>I avoided letting myself get upset when I thought about it or was reminded of it</t>
   </si>
   <si>
-    <t>Melancholic Music Moment</t>
-  </si>
-  <si>
-    <t>You're mid-sauté, trying to perfect your signature dish, when suddenly you're mentally planning a tropical vacation instead of seasoning the veggies. What do you do next?</t>
+    <t>Midnight Rush Ticket</t>
+  </si>
+  <si>
+    <t>You’re scrolling through social media, mindlessly tapping, when suddenly, you spot a flyer for a last-minute weekend getaway to a cozy cabin. The sun is setting, and your comfy couch is beckoning, but the idea of escaping into nature sparks something inside—or maybe not, if you’d rather keep your pajamas on.</t>
   </si>
   <si>
     <t>I thought about it when I didn't mean to</t>
   </si>
   <si>
-    <t>Sizzling beach</t>
-  </si>
-  <si>
-    <t>You walk into your living room and notice the furniture is rearranged. Did you actually move things around last night, or is your brain playing tricks on you? What do you do?</t>
+    <t>Cozy Cabin Sunset Escape</t>
+  </si>
+  <si>
+    <t>You just woke up to the most amazing news – think winning tickets to a sold-out concert of your favorite band. But as you scroll through social media trying to process it, reality feels like it's just slightly out of focus.</t>
   </si>
   <si>
     <t>I felt as if it hadn't happened or wasn't real</t>
   </si>
   <si>
-    <t>distorted reality</t>
-  </si>
-  <si>
-    <t>You're at the store and spot your ex's favorite snack on the shelf. Do you grab it, or keep walking?</t>
+    <t>Blurry Joy Celebration</t>
+  </si>
+  <si>
+    <t>Your favorite band just announced an impromptu show in town tonight. Your social calendar app buzzes with the news, but instead of scrambling for tickets, you find yourself scrolling through cat videos instead.</t>
   </si>
   <si>
     <t>I stayed away from reminders of it</t>
   </si>
   <si>
-    <t>store aisle nostalgia</t>
-  </si>
-  <si>
-    <t>You're mid-binge of your favorite show, and boom! Your brain starts screening a mental movie of all the stuff you were supposed to do today. What's your next move?</t>
+    <t>Isolation Giggles</t>
+  </si>
+  <si>
+    <t>You just saw an ad for a spontaneous weekend getaway to a cozy cabin in the woods. As you close your laptop, your mind starts filling with images—scenic hikes, crackling fireplaces, and steaming mugs of cocoa.  Do you immediately start packing, or are your bags still a distant thought?</t>
   </si>
   <si>
     <t>Pictures about it popped into my mind</t>
   </si>
   <si>
-    <t>Task Anxiety</t>
-  </si>
-  <si>
-    <t>You're sipping your latte in a busy coffee shop when suddenly a blender roars to life behind you. How high do you jump?</t>
+    <t>Woods Retreat Bliss</t>
+  </si>
+  <si>
+    <t>You're halfway through a quiet afternoon at home when suddenly, a tiny bird lands on your window sill, chirping loudly as if it's about to deliver a secret message. Your heart skips a beat, and you jump back in your seat, almost spilling your tea.</t>
   </si>
   <si>
     <t>I was jumpy and easily startled</t>
   </si>
   <si>
-    <t>Startled moment</t>
-  </si>
-  <si>
-    <t>You're trying to relax on the couch, but your brain keeps replaying that awkward conversation from yesterday like it's on repeat. What do you do?</t>
+    <t>Mystery Bird Visit</t>
+  </si>
+  <si>
+    <t>You just got that coveted invite to spontaneously join friends for a weekend camping trip – right when you were settling in for a cozy night in with your favorite binge-worthy show. The text notification buzzes, and you glance at the screen, thinking about the tent and the stars versus your warm blanket and remote control.</t>
   </si>
   <si>
     <t>I tried not to think about it</t>
   </si>
   <si>
-    <t>couch anxiety</t>
-  </si>
-  <si>
-    <t>You're scrolling through your phone for the 20th minute, avoiding that thing that's been on your mind all day. What do you do next?</t>
+    <t>Nature vs Comfort</t>
+  </si>
+  <si>
+    <t>You just found an old photo album tucked away in the attic corner, filled with memories of a past friendship that ended unexpectedly. The album sits open on your lap, sunlight dancing on the faded snapshots.  Do you:  
+* *Flip through quickly, avoiding the deeper pages?*
+* *Pause, fingers hovering, contemplating diving in or putting it away?*
+* *Grab a cup of tea first, eager to sort through each memory with newfound courage?*
+* *Jump up, ready to dive into writing down all your thoughts and feelings right now?*</t>
   </si>
   <si>
     <t>I was aware that I still had a lot of feelings about it, but I didn't deal with them</t>
   </si>
   <si>
-    <t>Mindless scrolling</t>
-  </si>
-  <si>
-    <t>You're watching a rom-com that's supposed to have you sobbing into your popcorn, but instead, you're just... numb. What's your next move?</t>
+    <t>Sunlight Memories Silence</t>
+  </si>
+  <si>
+    <t>You just stumbled upon a flyer for a spontaneous beach volleyball tournament happening down the street. Instead of feeling the usual rush of excitement, you just kinda blink at it, thinking about how comfy your couch looks.</t>
   </si>
   <si>
     <t>My feelings about it were kind of numb</t>
   </si>
   <si>
-    <t>Empty Room</t>
-  </si>
-  <si>
-    <t>You're flipping through old photos on your phone and suddenly feel like you're reliving your middle school years. What's your next move?</t>
+    <t>Lazy Beach Gaze</t>
+  </si>
+  <si>
+    <t>You just opened your old high school yearbook, and flipping through those pages suddenly makes you smell the cafeteria food again.  The next class bell rings in your memory.</t>
   </si>
   <si>
     <t>I found myself acting or feeling like I was back at that time</t>
   </si>
   <si>
-    <t>fingers scrolling</t>
-  </si>
-  <si>
-    <t>You're wide awake at midnight, and your brain is running a marathon of random thoughts. What's your next move?</t>
+    <t>Nostalgia Sighs, Bell Rings</t>
+  </si>
+  <si>
+    <t>You know it's bedtime, but your mind is having a hilarious stand-up comedy session starring every to-do list item you missed today. The cozy blanket stares back invitingly.</t>
   </si>
   <si>
     <t>I had trouble falling asleep</t>
   </si>
   <si>
-    <t>Midnight Thoughts</t>
-  </si>
-  <si>
-    <t>"You're trying to enjoy a quiet evening, but your emotions are flipping like a TV channel surfer—happy, sad, excited, annoyed, and back again. What do you do?"</t>
+    <t>Whimsical Bedtime Chaos</t>
+  </si>
+  <si>
+    <t>You just got an unexpected message from an old friend inviting you to an impromptu adventure – think spontaneous road trip or last-minute concert. Your comfy couch is calling, but the message buzzes with potential excitement.</t>
   </si>
   <si>
     <t>I had waves of strong feelings about it</t>
   </si>
   <si>
-    <t>Shifting Moods</t>
-  </si>
-  <si>
-    <t>You’re scrolling through your social media feed when a post pops up that reminds you of that cringe moment from last week. What’s your move?</t>
+    <t>Couch Versus Adventure</t>
+  </si>
+  <si>
+    <t>You just stumbled upon an old playlist titled "Remember That Breakup?" on your music app. Cue the opening chords of your ex's favorite song.  Do you:
+* A) Hit skip aggressively, burying your head in a pillow?
+* B) Give it a listen, curious if anything has changed?
+* C) Immediately create a new playlist called "New Beginnings"?
+* D) Blast it full volume, feeling ready to dance through the pain?</t>
   </si>
   <si>
     <t>I tried to remove it from my memory</t>
   </si>
   <si>
-    <t>Digital Embarrassment</t>
-  </si>
-  <si>
-    <t>"You're supposed to be working, but a funny cat video just took over your screen. What's your next move?"</t>
+    <t>Old Song Reflection</t>
+  </si>
+  <si>
+    <t>You're at your favorite coffee shop, surrounded by the aroma of freshly brewed beans and the soft hum of conversations. In front of you lies a stack of project ideas, each more intriguing than the last, but the laptop screen seems to mock you with its pristine whiteness.</t>
   </si>
   <si>
     <t>I had trouble concentrating</t>
   </si>
   <si>
-    <t>Funny cat distraction</t>
-  </si>
-  <si>
-    <t>You're chillin' on the couch when a commercial comes on that reminds you of something you're trying to forget. Suddenly, your heart is racing like you just ran a mile. What do you do?</t>
+    <t>CoffeeShop Stagnation</t>
+  </si>
+  <si>
+    <t>You're about to walk into your favorite café, the one with the aroma that usually makes your day brighter. Suddenly, you catch a glimpse of the street performer known for their incredible juggling act, who always manages to evoke a mix of awe and nervous energy in you. Your palms start to sweat just thinking about how close you'll be to the edge of the performance area.</t>
   </si>
   <si>
     <t>Reminders of it caused me to have physical reactions such as sweating, trouble breathing, nausea, or a pounding heart</t>
   </si>
   <si>
-    <t>anxious moment</t>
-  </si>
-  <si>
-    <t>You wake up in a panic after dreaming you forgot a big exam, and now you're half-tempted to check your calendar... for the third time. How strongly is that dream still got you shook?</t>
+    <t>Juggling Awe Anxiety</t>
+  </si>
+  <si>
+    <t>You wake up to the smell of freshly brewed coffee and sunlight streaming through your window, realizing today is the day for that spontaneous road trip you’ve been daydreaming about for weeks. Your camping gear is neatly packed by the door, just waiting for you to give it a final glance.</t>
   </si>
   <si>
     <t>I had dreams about it</t>
   </si>
   <si>
-    <t>Morning Anxiety</t>
-  </si>
-  <si>
-    <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt watchful and on-guard" into a fun, engaging real-life scenario for a mental wellness app. The user wants the scenario to be light, slightly humorous, and relatable. It should be short, just 1-2 sentences, and avoid phrases like "how often" or "do you feel." Instead, I should describe a situation where the user imagines themselves and chooses how they'd respond. The scenario should still capture the psychological essence of feeling watchful and on-guard, and it should be suitable for a scale response.
-First, I need to understand what "felt watchful and on-guard" means. It's about feeling vigilant, maybe anxious or tense, as if something might happen and you're ready to react. So, I need a situation where someone might feel that way.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-I should think of a common situation where someone might feel the need to be watchful. Maybe something unexpected happening, like a sudden noise or an unexpected event. Or perhaps a social situation where they feel they need to be cautious.
-Let me brainstorm some ideas. Maybe something like walking alone at night and hearing a noise behind you. That could make someone feel watchful and on-guard. Or perhaps in a crowded place where someone bumps into them, making them feel the need to be vigilant.
-Wait, the example uses a relatable, everyday situation with a humorous twist. So maybe I can think of a situation that's a bit funny but still conveys the feeling.
-How about something like being in a situation where you're waiting for something to happen, and you're on edge. Maybe waiting for a surprise party, but it's taking too long, and you're getting anxious. Or maybe waiting for a delivery and being overly alert for the doorbell.
-Alternatively, maybe a scenario where you're trying to relax but can't because you're anticipating something. Like trying to watch TV but jumping at every little sound.
-Wait, the example uses a situation where the brain is wandering, so maybe something similar but related to feeling watchful. Maybe something like being in a quiet place and suddenly hearing a strange noise, making you feel on guard.
-Let me try to craft a sentence. "You're home alone on a stormy night, and every creak of the house makes you jump. What do you do?" Hmm, that's a bit too generic. Maybe add some humor.
-Alternatively, "You're trying to enjoy a peaceful evening, but every little sound makes you feel like you're in a horror movie. What's your next move?" That adds a bit of humor by referencing horror movies, which people can relate to.
-Wait, the example uses a meme, which is very relatable and modern. Maybe I can use something similar. How about a situation involving technology or everyday tech issues that cause a startle.
-Wait, maybe something like this: "You're working from home when your cat jumps onto your keyboard, and now your boss is asking why you just sent a random string of letters. What do you do?" Hmm, that's more about embarrassment than feeling watchful.
-Alternatively, "You're at a coffee shop, and someone sits down next to you with a loud conversation, making you feel like you're on high alert. What's your move?" That's more about feeling annoyed or distracted.
-Wait, perhaps a situation where you're waiting for something important, like a text message or an email, and you're constantly checking your phone, feeling on edge. "You've been waiting for an important text all day, and every buzz from your phone makes you jump. What do you do?" That captures the feeling of being watchful and on-guard.
-Alternatively, maybe a social situation where you're feeling anxious, like meeting new people. "You're at a party, and every time someone approaches, you feel like you're bracing for impact. What's your next move?" That could work, but it's a bit more about social anxiety.
-Wait, the original question is about feeling watchful and on-guard, which is more about vigilance and tension, possibly related to anxiety. So, a situation that triggers that feeling.
-How about this: "You're walking through a crowded market, and every bump from the crowd makes you feel like you're on high alert. What do you do?" That's a bit too generic, but it does capture the feeling.
-Alternatively, using a more relatable and humorous scenario: "You're trying to relax on your couch, but every little noise makes you feel like you're in a action movie, waiting for the next move. What's your next step?" That adds a bit of humor by comparing it to an action movie.
-Wait, the example used a meme, which is very current and relatable. Maybe I can use something similar. How about: "You're scrolling through your feeds when you see a post that makes you feel like you're walking on eggshells. What do you do?" Hmm, that's more about feeling cautious in a social media context.
-Alternatively, "You're playing a game where you have to wait for the perfect moment to act, and every second feels like an eternity. What's your move?" That's more about gaming and strategy, not exactly capturing the feeling of being watchful in real life.
-Wait, perhaps a situation involving waiting for something, like a delivery or a message, and being overly alert. "You've been waiting for a package all day, and every knock on the door startles you. What do you do?" That's a possibility.
-Alternatively, "You're at a busy café, and every time someone walks by, you feel like you're on guard. What's your next move?" That's more about feeling anxious in a crowded place.
-Wait, maybe something like this: "You're trying to focus on your work, but every little noise in the office makes you jump. What do you do?" That's relatable and captures the feeling of being on guard.
-Alternatively, "You're in a meeting, and every time someone looks at you, you feel like you're under a microscope. What's your next move?" That's more about feeling self-conscious.
-Wait, perhaps a scenario involving a sudden noise. "You're in a quiet library when someone's phone suddenly rings loudly. What do you do?" That's a bit too specific, but it does capture a startle response.
-Alternatively, "You're in a quiet room when you hear a strange noise behind you. What's your next move?" That's simple and effective, but maybe too straightforward.
-Wait, the example used a humorous twist with a meme. Maybe I can do something similar. How about: "You're trying to enjoy a peaceful evening when your neighbor decides to practice their drumming skills. What do you do?" That adds a bit of humor and relatability.
-Alternatively, "You're home alone when you hear a strange creaking sound. What's your next move?" That's classic, but maybe a bit too common.
-Wait, perhaps combining the idea of being watchful with a common, relatable situation. "You're waiting for a text from someone important, and every notification makes you jump. What do you do?" That captures the feeling of being on guard, waiting for something.
-Alternatively, "You're in a crowded place, and every bump makes you feel like you're in a real-life video game. What's your next move?" That adds a bit of humor by comparing it to a video game.
-Wait, the example used a meme and brain wandering, so maybe something similar. How about: "You're trying to watch your favorite show, but every little sound makes you feel like you're in a horror movie. What do you do?" That adds humor by referencing horror movies.
-Alternatively, "You're at a coffee shop, and every time someone walks by, you feel like you're on high alert. What's your move?" That's more about feeling anxious in public.
-Wait, perhaps a scenario involving technology. "You're working on your computer when it suddenly makes a strange noise. What do you do?" That's a bit too vague.
-Alternatively, "You're in a meeting, and every time someone speaks, you feel like you're bracing for impact. What's your next move?" That's more about feeling anxious in a professional setting.
-Wait, maybe something like this: "You're trying to relax, but every little sound makes you jump, like you're waiting for a surprise party that never comes. What do you do?" That adds a bit of humor by comparing it to a surprise party.
-Alternatively, "You're home alone, and every creak of the house makes you feel like you're in a suspense movie. What's your next move?" That's a bit dramatic but relatable.
-Wait, perhaps combining the idea of being watchful with a common activity. "You're cooking dinner when you hear a strange noise in the kitchen. What do you do?" That's a bit too specific.
-Alternatively, "You're trying to meditate, but every little sound breaks your concentration. What's your next move?" That's more about mindfulness and distraction.
-Wait, maybe something like this: "You're in a quiet room when you hear a sudden, loud noise. What do you do?" That's straightforward but captures the startle response.
-Alternatively, "You're at a park when a stranger approaches you, and you feel like you're on guard. What's your next move?" That's more about feeling unsafe.
-Wait, perhaps a scenario involving waiting and anticipation. "You've been waiting for an important call, and every ringtone startles you. What do you do?" That captures the feeling of being on guard.
-Alternatively</t>
+    <t>Sunrise Adventure Gear</t>
+  </si>
+  <si>
+    <t>You just got a mysterious notification from an old friend you haven't heard from in years, inviting you to a surprise event. Your apartment doorbell suddenly rings unexpectedly. Do you:
+* rush to the door, heart pounding with curiosity and excitement?
+* slowly creep towards the peephole, one cautious step at a time, arms crossed?</t>
   </si>
   <si>
     <t>I felt watchful and on-guard</t>
   </si>
   <si>
-    <t>You're waiting for an important call, and every ringtone startles you. What do you do?</t>
-  </si>
-  <si>
-    <t>Your friend just asked about that one thing you’ve been dodging all week, and you’re suddenly very interested in the pattern on your coffee mug. What do you do?</t>
+    <t>Curiosity Knocks</t>
+  </si>
+  <si>
+    <t>You just got the surprise news that your favorite local café is offering a limited edition flavor inspired by your quirky taste in latte art designs. You’re staring at their Instagram post, coffee mug in hand, wondering whether to muster the energy to dash over or just scroll through memes instead.</t>
   </si>
   <si>
     <t>I tried not to talk about it</t>
   </si>
   <si>
-    <t>coffee mug focus</t>
-  </si>
-  <si>
-    <t>You're feeling so cheerful that even the usually annoying elevator music sounds like a dance track. What do you do?</t>
+    <t>Quirky Latte Joy Dilemma</t>
+  </si>
+  <si>
+    <t>A surprise package arrives with your name on it, and you see it's not just any delivery—it's a limited edition of your favorite author's new book. The doorbell echoes, and there it sits, wrapped in colorful paper. What's your first move?</t>
   </si>
   <si>
     <t>I have felt cheerful in good spirits.</t>
@@ -658,46 +627,46 @@
     <t>0-At no Time, 1-Some of the time,2-Less than half of the time, 3-More than half time, 4-Most of the time, 5-All of the time</t>
   </si>
   <si>
-    <t>elevator dance</t>
-  </si>
-  <si>
-    <t>You're in a peaceful park, and even the loudest bird isn't ruining your vibe. What do you do?</t>
+    <t>Excited Discovery Unveiling</t>
+  </si>
+  <si>
+    <t>You just opened your favorite café on a sunny Saturday morning, and the aroma of freshly brewed coffee fills the air. As you glance at the peaceful street scene outside, a customer waves enthusiastically from the doorway.</t>
   </si>
   <si>
     <t xml:space="preserve">I have felt calm and relaxed. </t>
   </si>
   <si>
-    <t>Peaceful Park</t>
-  </si>
-  <si>
-    <t>You're in the middle of a Netflix binge, but suddenly you're itching to get up and do something energetic. What do you do?</t>
+    <t>Café Sunshine Serenity</t>
+  </si>
+  <si>
+    <t>You just scored tickets to a surprise outdoor concert announced last minute. Your favorite band is headlining. It’s a crisp evening, and the park is calling your name. Your slippers are comfy, but the stage lights beckon.</t>
   </si>
   <si>
     <t>I have felt active and vigorous.</t>
   </si>
   <si>
-    <t>Energetic Movement</t>
-  </si>
-  <si>
-    <t>Your alarm goes off, but instead of hitting snooze, you jump out of bed like a jackrabbit on a pogo stick. What's next?</t>
+    <t>Concertside Nightlight</t>
+  </si>
+  <si>
+    <t>Sunrise peeks through your curtains, casting warm hues across your room. You stretch, feeling the bounce back in your step, and suddenly, the idea of tackling that mountain of books or finally redecorating your room feels like a thrilling adventure rather than a chore.</t>
   </si>
   <si>
     <t>I woke up feeling fresh and rested.</t>
   </si>
   <si>
-    <t>Energetic Morning</t>
-  </si>
-  <si>
-    <t>You've got a weekend ahead of you, and your schedule is packed with all your favorite things—hiking, baking, and a movie marathon. How excited are you to dive in?</t>
+    <t>Rising Dawn Energy</t>
+  </si>
+  <si>
+    <t>Your calendar pops up with three options: a dull conference call, a trip to the gym, or an impromptu pottery class with friends. The sun is shining, and the studio door is calling your name.</t>
   </si>
   <si>
     <t xml:space="preserve">My daily life has been filled with things that interest me.  </t>
   </si>
   <si>
-    <t>Cozy Weekend</t>
-  </si>
-  <si>
-    <t>You've just walked in the door after a long day at work, and the thought of making dinner feels like climbing Mount Everest. What do you do?</t>
+    <t>Sunlit Studio Creativity</t>
+  </si>
+  <si>
+    <t>You just clocked out, and the sun is setting as you eye the pile of reports still on your desk versus the comfy hammock in your backyard.  A gentle breeze rustles nearby leaves, calling your name.</t>
   </si>
   <si>
     <t xml:space="preserve">I feel emotionally drained by my work. </t>
@@ -709,64 +678,64 @@
     <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
   </si>
   <si>
-    <t>kitchen overwhelm</t>
-  </si>
-  <si>
-    <t>You've been 'on' all day—pretending to be a morning person, remembering everyone's names, and nodding through another brainstorming session. What's left in your social battery?</t>
+    <t>Sunset Serenity</t>
+  </si>
+  <si>
+    <t>The coffee machine gurgles as your last meeting wraps up, and you glance at your overflowing inbox knowing another day of back-to-back zooms awaits.  Your comfy office chair looks awfully tempting.</t>
   </si>
   <si>
     <t xml:space="preserve">Working with people all day long requires a great deal of effort. </t>
   </si>
   <si>
-    <t>Empty Cup</t>
-  </si>
-  <si>
-    <t>Your inbox is blowing up, your phone won't stop buzzing, and you're starting to think the coffee mug that says 'World's Okayest Employee' might be lying to you. What's your move?</t>
+    <t>Overwhelmed Desk Comfort</t>
+  </si>
+  <si>
+    <t>You just got an email with a mountain of new projects piled on top of your already overflowing desk. The coffee pot is empty, and your comfy chair is looking awfully inviting.</t>
   </si>
   <si>
     <t xml:space="preserve">I feel like my work is breaking me down. </t>
   </si>
   <si>
-    <t>Overwhelmed Workspace</t>
-  </si>
-  <si>
-    <t>You've just spilled coffee all over the report you stayed up late finishing, and your boss is about to walk in for the meeting. What do you do?</t>
+    <t>Overwhelmed Desk Calm Chair</t>
+  </si>
+  <si>
+    <t>You just received an email with a mountain of revisions needed for a project you thought was already wrapped up. The coffee's cold, but the sun's shining through the window like, "Go outside! Live a little!"  What's your move?</t>
   </si>
   <si>
     <t xml:space="preserve">I feel frustrated by my work. </t>
   </si>
   <si>
-    <t>Office Chaos</t>
-  </si>
-  <si>
-    <t>It's Sunday evening, and while your friends are posting beach selfies, you're still crunching numbers like your job is a bad boyfriend who won't let you go. What do you do?</t>
+    <t>Sunshine Breakthrough</t>
+  </si>
+  <si>
+    <t>The weekend's finally here, and your boss just sent a last-minute email asking if you could whip up a quick report by Monday. As you glance at your comfy couch beckoning you with a good book, what’s your first instinct?</t>
   </si>
   <si>
     <t>I feel I work too hard at my job.</t>
   </si>
   <si>
-    <t>Sunday night work</t>
-  </si>
-  <si>
-    <t>"You're working as a barista on a busy morning, and the line is filled with caffeine-deprived zombies. Each customer has a complicated order, and your introvert battery is on 1%. What's your next move?"</t>
+    <t>Stress vs. Relaxation</t>
+  </si>
+  <si>
+    <t>You're at a bustling farmer's market, the aroma of fresh bread mingling with the chatter of vendors and shoppers. A friendly face waves you over to sample their homemade jams, but all you want to do is grab your basket and quietly slip away to the quieter corners of the market.</t>
   </si>
   <si>
     <t xml:space="preserve">It stresses me too much to work in direct contact with people. </t>
   </si>
   <si>
-    <t>Chaotic overwhelm</t>
-  </si>
-  <si>
-    <t>Your computer has 12 tabs open, your to-do list is longer than your patience, and you just spilled coffee on your notes. What do you do?</t>
+    <t>Quiet Corner Serenity</t>
+  </si>
+  <si>
+    <t>You just got home from work, and there's a mountain of unopened mail on the counter next to a note reminding you to call the dentist. The couch is calling your name louder than a motivational speaker.</t>
   </si>
   <si>
     <t>I feel like I’m at the end of my rope.</t>
   </si>
   <si>
-    <t>chaotic workspace</t>
-  </si>
-  <si>
-    <t>You're a barista on a chaotic morning shift, juggling a million orders. As the line grows, you start seeing customers as just coffee cups with legs. Then, your regular, Dave, walks in with his usual smile. What do you do?</t>
+    <t>Overwhelmed Comfort Zone</t>
+  </si>
+  <si>
+    <t>You walk into your workspace, and right in front of you is a stack of patient files—each one waiting for that personal touch that makes care truly meaningful. Today, though, your coffee hasn’t kicked in yet, and the files just seem like a mountain of paperwork.</t>
   </si>
   <si>
     <t xml:space="preserve">I feel I look after certain patients/clients impersonally, as if they are objects. </t>
@@ -775,137 +744,65 @@
     <t>MBI-B</t>
   </si>
   <si>
-    <t>&lt;think&gt;
-Okay, so I need to come up with a short, descriptive keyword for Pexels based on the given scenario. Let me read through the scenario again to make sure I understand it.
-The scenario is about a barista during a chaotic morning shift. They're juggling a million orders, and as the line grows, they start seeing customers as just coffee cups with legs. Then, their regular customer, Dave, walks in with his usual smile. The question is, what do you do?
-Hmm, so the key elements here are chaos, a busy morning, a barista overwhelmed by orders, customers being reduced to coffee cups with legs, and then Dave bringing a smile into this chaos.
-I need to capture the mood or the visual image that represents this situation. The main contrast here is between the chaos and the moment of relief or normalcy that Dave brings.
-So, the barista is overwhelmed, seeing people as objects (coffee cups), which suggests a sense of depersonalization or dehumanization due to stress. Then, Dave's smile breaks through that, perhaps bringing a moment of humanity or connection.
-I should think of keywords that represent this transition. Maybe something like "chaotic morning shift" but that's too long. Or "coffee cup legs" which is a bit abstract but might not capture the whole scenario.
-Wait, the user mentioned to keep it abstract but relevant, focusing on moods, objects, places, or people involved. So, perhaps focusing on the contrast between chaos and the smile.
-Another angle is the transformation from seeing people as objects to seeing a person again. So, maybe "human connection" but that's a bit generic. Or "smile in chaos."
-Alternatively, focusing on the visual of the coffee cups with legs turning back into a person with a smile. Maybe "coffee cup legs" but that's more about the object. Or "chaos to smile."
-Wait, the user wants a short phrase, 2-3 words max. So, maybe "chaotic coffee cups" but that doesn't capture the smile part. Or "smiling through chaos."
-Alternatively, focusing on the barista's perspective: "barista's relief" or "morning shift relief."
-But I think the key moment is when Dave's smile breaks through the chaos, so maybe "smile in chaos" or "chaos to smile."
-Alternatively, "coffee cup legs" is a unique image, but it doesn't convey the positive change. So perhaps combining both elements: "chaos to connection."
-Wait, but the user wants it to be a visual image. So maybe "coffee cups transforming" or "legs to person."
-Alternatively, focusing on the barista's perspective: "overwhelmed barista" but that's too generic.
-Wait, the main visual is the barista seeing customers as coffee cups with legs, then seeing Dave as a person again. So the transformation is from objects to a person. Maybe "coffee cups to person" but that's a bit long.
-Alternatively, "human in chaos" or "person in crowd."
-Wait, maybe "coffee cup legs" is the main visual, but then the smile brings a change. So perhaps "smiling coffee cup" but that's a bit odd.
-Alternatively, focusing on the barista's action: "serving with smile" but that's too generic.
-Wait, perhaps the keyword should capture the moment when the barista sees Dave and smiles, breaking the chaos. So maybe "smile amidst chaos" or "calm in chaos."
-Alternatively, "coffee and smile" but that's too vague.
-Wait, the user wants it to be abstract but relevant. So maybe "chaotic transformation" or "human connection."
-Alternatively, focusing on the visual of the coffee cups with legs and then a smiling person. So maybe "coffee cup legs" and "smiling person," but I need a single phrase.
-Hmm, perhaps "chaotic morning shift" is too long, but "chaotic shift" is 2 words. Or "morning chaos."
-Wait, but the key is the transition from chaos to a moment of connection. So maybe "chaos to connection" or "connection in chaos."
-Alternatively, "coffee chaos" but that's too vague.
-Wait, perhaps "coffee cup legs" is the main visual, but I need to include the smile. Maybe "smiling coffee cup" but that's not quite right.
-Alternatively, focusing on the barista's perspective: "barista's relief" or "morning relief."
-Wait, I think the best approach is to capture the contrast between the chaotic environment and the moment of human connection brought by Dave's smile. So, "chaos to connection" or "connection in chaos."
-But the user wants a short phrase, so maybe "chaos to calm" or "calm in chaos."
-Alternatively, focusing on the visual of the coffee cups with legs and then a smiling person, so "coffee cups to smile."
-But that's a bit long. Maybe "coffee to smile" but that's too vague.
-Wait, perhaps "chaotic coffee shop" but that's too generic.
-Alternatively, focusing on the barista's action: "serving with a smile" but that's too common.
-Wait, maybe "coffee cup transformation" but that's too long.
-Alternatively, "legs to smile" but that's a bit abstract.
-Wait, perhaps "chaotic shift" is the main scenario, but the key moment is the smile. So maybe "shift smile" but that's too vague.
-Alternatively, "morning shift smile" but that's too long.
-Wait, perhaps "coffee chaos" but that's too short and vague.
-Alternatively, focusing on the visual of the coffee cups with legs, so "coffee cup legs" is a unique image, but it doesn't capture the smile. So maybe "coffee cup legs smile" but that's too long.
-Wait, perhaps the keyword should be "coffee cup legs" because that's the main visual, and the smile is the action. But the user wants a single phrase.
-Alternatively, focusing on the barista's perspective: "overwhelmed barista" but that's too generic.
-Wait, perhaps "chaotic morning" is the setting, and the smile is the action, so "chaotic morning smile" but that's 3 words.
-Alternatively, "morning chaos smile" but that's 3 words.
-Wait, the user allows 2 to 3 words, so maybe "chaotic morning smile" is acceptable.
-Alternatively, "chaotic shift smile" but that's 3 words.
-Wait, but I think the main visual is the coffee cups with legs, so maybe "coffee cup legs" is the primary keyword, and the smile is secondary. So perhaps "coffee cup legs smile" but that's 3 words.
-Alternatively, "coffee cup legs" as the main keyword, and the smile is the action, but I can't combine them into a single phrase without making it too long.
-Wait, perhaps the keyword should focus on the transformation from seeing people as objects to seeing a person, so "human connection" but that's too generic.
-Alternatively, "person in crowd" but that's too vague.
-Wait, maybe "coffee cup to person" but that's 3 words.
-Alternatively, "coffee to person" but that's too vague.
-Wait, perhaps "chaotic shift" is the main scenario, and the smile is the key action, so "chaotic shift smile" but that's 3 words.
-Alternatively, "shift smile" but that's too vague.
-Wait, perhaps the best approach is to focus on the main visual elements: coffee cups with legs and a smile. So, "coffee cup legs smile" but that's 3 words.
-Alternatively, "coffee cup smile" but that's 2 words and captures the idea of the smile breaking through the chaos.
-Wait, but the main visual is the coffee cups with legs, so maybe "coffee cup legs" is the primary keyword, and the smile is the action, but I can't combine them into a single phrase without exceeding the word limit.
-Alternatively, focusing on the barista's action: "serving with a smile" but that's too common.
-Wait, perhaps "chaotic coffee cups" but that's 3 words.
-Alternatively, "coffee chaos" but that's too vague.
-Wait, I think I'm overcomplicating this. The main elements are chaos, coffee cups with legs, and a smile. So, perhaps "chaotic coffee cups" is the main visual, and the smile is the action, but I need a single phrase.
-Alternatively, focusing on the transformation: "chaos to calm" or "calm in chaos."
-Wait, but the user wants it to be a visual image. So, perhaps "coffee cup legs" is the main image, and the smile is the action, but I can't combine them.
-Alternatively, focusing on the barista's perspective: "overwhelmed barista" but that's too generic.
-Wait, perhaps "chaotic shift" is the main scenario, and the smile is the key action, so "chaotic shift smile" but that's 3 words.
-Alternatively, "shift smile" but that's too vague.
-Wait, maybe "morning shift smile" but that's 3 words.
-Alternatively, "morning smile" but that's too vague.
-Wait, perhaps the best keyword is "coffee cup legs" because that's the unique visual, and the smile is the action, but I can't combine them.
-Alternatively, focusing on the barista's action: "serving with a smile" but that's too common.
-Wait, perhaps "chaotic coffee cups" is the main visual, and the smile is the action, but I can't combine them.
-Alternatively, focusing on the transformation: "chaos to connection" or "connection in chaos."
-Wait, but the user wants a visual image, so maybe "coffee</t>
-  </si>
-  <si>
-    <t>Your alarm is blaring, and the snooze button is calling your name like an old friend. Do you answer?</t>
+    <t>Overwhelmed Desk Files</t>
+  </si>
+  <si>
+    <t>Your alarm clock dances a jig on your nightstand, mocking you with the cheerful tune you swore you'd change last week. Sunlight streams through the blinds, painting your room in a glow that feels more like interrogation lights than a gentle wake-up call.  Your comfy pillow whispers sweet nothings of eternal slumber.</t>
   </si>
   <si>
     <t xml:space="preserve">I feel tired when I get up in the morning and have to face another day at work. </t>
   </si>
   <si>
-    <t>Snooze Button Temptation</t>
-  </si>
-  <si>
-    <t>Your client dramatically spills their coffee all over the table, looks you dead in the eye, and declares, "This is exactly how you've ruined my life!" What do you do next?</t>
+    <t>Gloomy Wake-Up Glow</t>
+  </si>
+  <si>
+    <t>Your inbox pings with yet another message from a client detailing their latest challenge, sounding a bit like they expect you to wave a magic wand. You glance at the sunshine beckoning outside your window.</t>
   </si>
   <si>
     <t xml:space="preserve">I have the impression that my patients/clients make me responsible for some of their problems. </t>
   </si>
   <si>
-    <t>Chaotic confrontation</t>
-  </si>
-  <si>
-    <t>Your coworker pops by your desk with 'just one more thing' as you're grabbing your jacket to leave. What's your next move?</t>
+    <t>Sunlight Escapism</t>
+  </si>
+  <si>
+    <t>You just clocked out, and instead of a celebratory dance break, you’re contemplating whether your couch has achieved sentience based on how much it’s calling your name.  🛋️💤</t>
   </si>
   <si>
     <t xml:space="preserve">I am at the end of my patience at the end of my work day. </t>
   </si>
   <si>
-    <t>workplace interruption</t>
-  </si>
-  <si>
-    <t>You're in a meeting with a client who's sharing their latest drama, but honestly, you're more invested in your post-lunch coffee break. What do you do?</t>
+    <t>Cozy Couch Seduction</t>
+  </si>
+  <si>
+    <t>You glance at the schedule and see Mrs. Peterson—the one who always wants to chat about her cat instead of addressing her anxiety—coming in soon. The aroma of freshly brewed coffee from the break room suddenly seems overwhelmingly enticing.</t>
   </si>
   <si>
     <t xml:space="preserve">I really don’t care about what happens to some of my patients/clients. </t>
   </si>
   <si>
-    <t>coffee distraction</t>
-  </si>
-  <si>
-    <t>Your coworker excitedly shares news about their new puppy, but you're too busy juggling deadlines to muster more than a distracted smile. How do you handle it?</t>
+    <t>Coffee Break Escape</t>
+  </si>
+  <si>
+    <t>Your colleague excitedly tells you about their weekend adventure, eyes sparkling with enthusiasm.  You've heard variations of this story twice already today.  You're midway through your third cup of coffee.</t>
   </si>
   <si>
     <t xml:space="preserve">I have become more insensitive to people since I’ve been working. </t>
   </si>
   <si>
-    <t>Forced Smile</t>
-  </si>
-  <si>
-    <t>Your coworker comes to you in a panic because they can't find their favorite pen, and honestly, you can't muster up the energy to care. What do you do?</t>
+    <t>Overwhelmed Focus Barista</t>
+  </si>
+  <si>
+    <t>Your team just won a big project, but instead of feeling elated, you find yourself barely cracking a smile while packing up your laptop. The celebratory pizza in the break room looks more like a chore than a treat.</t>
   </si>
   <si>
     <t xml:space="preserve">I’m afraid that this job is making me uncaring. </t>
   </si>
   <si>
-    <t>Overwhelmed Office</t>
-  </si>
-  <si>
-    <t>You just wrapped up a big project at work and your boss (and maybe even your cat) is impressed. How does that feel?</t>
+    <t>Melancholic Triumph</t>
+  </si>
+  <si>
+    <t>Scenario:
+You just received a glowing email from a client praising your recent project. Your boss walks in with an even bigger challenge for tomorrow, holding up a stack of files with a mischievous grin. Your coffee mug is empty, but the day is young.</t>
   </si>
   <si>
     <t>I accomplish many worthwhile things in this job.</t>
@@ -914,70 +811,70 @@
     <t>MBI-C</t>
   </si>
   <si>
-    <t>workplace success</t>
-  </si>
-  <si>
-    <t>You've just turned your living room into a dance floor, and your cat is judging you. What's your next move?</t>
+    <t>Euphoric Challenge Dawn</t>
+  </si>
+  <si>
+    <t>Your alarm clock sings its cheerful tune just as the sunrise paints the sky in hues of pink and orange. Beside you, your running shoes wink suggestively from under the bed, whispering promises of a crisp morning breeze and a rewarding jog through the park.</t>
   </si>
   <si>
     <t xml:space="preserve">I feel full of energy. </t>
   </si>
   <si>
-    <t>Dancing at Home</t>
-  </si>
-  <si>
-    <t>A client starts telling you about their tough day, and you can practically see the stress clouds hovering over their head. What do you do?</t>
+    <t>Sunrise Motivation Run</t>
+  </si>
+  <si>
+    <t>You just finished a heartfelt session with a client who shared some big challenges. As you tidy up your notes, your colleague bursts into the room with an idea for a spontaneous office game night. Your gaze shifts from the client's smile to the enthusiastic energy your colleague exudes.</t>
   </si>
   <si>
     <t xml:space="preserve">I am easily able to understand what my patients/clients feel. </t>
   </si>
   <si>
-    <t>Stress clouds</t>
-  </si>
-  <si>
-    <t>Your client is on the verge of tears because they spilled coffee on their shirt right before a big meeting. What do you do?</t>
+    <t>Transitioning Joy</t>
+  </si>
+  <si>
+    <t>Your inbox pings with three urgent messages: a client's panic attack log, a scheduling conflict that needs immediate sorting, and a thoughtful thank-you note. The coffee's cold, but a fresh pot is calling your name... or is it?</t>
   </si>
   <si>
     <t xml:space="preserve">I look after my patients’/clients’ problems very effectively. </t>
   </si>
   <si>
-    <t>spilled coffee</t>
-  </si>
-  <si>
-    <t>Your office is buzzing like a reality TV show finale, and your coworker is dramatically freaking out over a printer jam. What's your move?</t>
+    <t>Stressful Multitasking Morning</t>
+  </si>
+  <si>
+    <t>Your colleague bursts into the office, clearly frazzled after a heated meeting, seeking advice on a delicate personal issue. Papers are askew around them, and the room feels a bit tense.  How ready are you to calmly guide them through it?</t>
   </si>
   <si>
     <t xml:space="preserve">In my work, I handle emotional problems very calmly. </t>
   </si>
   <si>
-    <t>Stressed Office</t>
-  </si>
-  <si>
-    <t>A coworker dramatically places a 'World's Best Helper' crown on your desk and says, 'You're the reason I didn't lose my mind this week!' What do you do?</t>
+    <t>Tense Guidance Calm</t>
+  </si>
+  <si>
+    <t>You've just received an enthusiastic email from a colleague thanking you for the insightful feedback you gave yesterday. Your inbox also chimes with reminders for a big presentation prep meeting in an hour. As you sip your coffee, you consider diving in or maybe just browsing cat videos instead.</t>
   </si>
   <si>
     <t>Through my work, I feel that I have a positive influence on people.</t>
   </si>
   <si>
-    <t>workplace appreciation</t>
-  </si>
-  <si>
-    <t>Your client walks in looking like they've just seen a ghost, and you notice they're clutching a coffee cup like it's a lifeline. What do you do to turn this into a chill chat?</t>
+    <t>Coffee Calm Decision</t>
+  </si>
+  <si>
+    <t>You walk into your therapy room, freshly brewed herbal tea in hand, ready for your next session. Sunlight streams through the window, and a stack of cozy throw pillows sits invitingly on the couch.  A client nervously knocks, then enters, looking a bit overwhelmed.</t>
   </si>
   <si>
     <t>I am easily able to create a relaxed atmosphere with my patients/clients.</t>
   </si>
   <si>
-    <t>Comforting coffee moment</t>
-  </si>
-  <si>
-    <t>You're in a brainstorming session with a client, and their wild idea just sparked a burst of energy in you. What do you do next?</t>
+    <t>Therapy Comfort Sunshine</t>
+  </si>
+  <si>
+    <t>You just wrapped up an especially heartwarming session with a client who finally cracked that smile you've been hoping to see. As you gather your things, the afternoon sunlight streams through the window, casting a warm glow over your notes. The stack of paperwork for the rest of your caseload sits patiently on your desk.</t>
   </si>
   <si>
     <t xml:space="preserve">I feel refreshed when I have been close to my patients/clients at work. </t>
   </si>
   <si>
-    <t>Jumping up</t>
+    <t>Warm Sunshine Smiles</t>
   </si>
 </sst>
 </file>
@@ -1343,25 +1240,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="42.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,1739 +1267,1742 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H62" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C65" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H67" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C68" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="2" t="s">
         <v>222</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C70" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="2" t="s">
         <v>231</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C75" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C78" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C79" s="2" t="s">
         <v>253</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C80" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C82" s="2" t="s">
         <v>263</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C83" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C84" s="2" t="s">
         <v>269</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C85" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C86" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C87" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
